--- a/InputFiles/ICDC/TC01_ICDC_UC01_StudyType-Genomics.xlsx
+++ b/InputFiles/ICDC/TC01_ICDC_UC01_StudyType-Genomics.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\ICDC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E010E000-231D-4D6F-BD4A-7CEFE3E9FB13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BFD1F0E-B51D-4B1F-BFBC-F18371A0501B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
@@ -303,7 +303,7 @@
 LEFT JOIN 
     df_enrollment enr ON enr."case.case_record_id" = c.case_record_id
 LEFT JOIN
-    df_cohort coh ON coh.cohort_record_id = c."cohort.cohort_record_id"
+    df_cohort coh ON c."cohort.cohort_id" = coh.cohort_record_id
 WHERE
     st.clinical_study_designation = 'UC01' 
     AND st.clinical_study_type = 'Genomics'
